--- a/biology/Mycologie/Gibberella/Gibberella.xlsx
+++ b/biology/Mycologie/Gibberella/Gibberella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibberella est un genre de champignons ascomycètes.
-De nombreuses espèces de Gibberella sont des parasites de plantes dont la forme asexuée appartient au genre Fusarium[1].
+De nombreuses espèces de Gibberella sont des parasites de plantes dont la forme asexuée appartient au genre Fusarium.
 Leurs asques sont contenus dans des périthèces.
 </t>
         </is>
@@ -513,19 +525,21 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gibberella acuminata
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gibberella acuminata
 Gibberella avenacea
 Gibberella baccata
 Gibberella fujikuroi
 Giberella gordonii
-Gibberella moniliformis -  dont le génome est entièrement séquencé [1]
+Gibberella moniliformis -  dont le génome est entièrement séquencé 
 Gibberella pulicaris
 Gibberella thapsina
 Gibberella tricincta
 Gibberella xylarioides
-Gibberella zeae -  dont le génome est entièrement séquencé [2]</t>
+Gibberella zeae -  dont le génome est entièrement séquencé </t>
         </is>
       </c>
     </row>
